--- a/template/ddl.xlsx
+++ b/template/ddl.xlsx
@@ -1,57 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80315E98-F477-9E49-9834-7062A0DD19DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9580" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26560" windowHeight="15260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修改履历" sheetId="3" r:id="rId1"/>
-    <sheet name="说明" sheetId="4" r:id="rId2"/>
-    <sheet name="#模板" sheetId="5" r:id="rId3"/>
+    <sheet name="#说明" sheetId="4" r:id="rId2"/>
+    <sheet name="测试表" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Yang Libing</author>
+    <author>tc={68711F02-4296-5D41-8CEA-FAD2D788CE42}</author>
     <author>Libing Yang</author>
     <author>yanglibing</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{68711F02-4296-5D41-8CEA-FAD2D788CE42}">
+      <text>
+        <t xml:space="preserve">[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    填写表空间，为空或 - 表示默认。
+</t>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Yang Libing:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-该列可不写，工具将根据DB类型及所生成语言自动选择。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K6" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Libing Yang:</t>
@@ -60,6 +64,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -68,13 +73,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="1">
+    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Libing Yang:</t>
@@ -83,6 +89,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -91,14 +98,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="2">
+    <comment ref="K6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>yanglibing:
 1</t>
@@ -108,6 +115,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>、外键表可简写，如</t>
@@ -117,7 +125,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>UserInfo</t>
         </r>
@@ -126,6 +134,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>可简写为</t>
@@ -135,7 +144,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>User</t>
         </r>
@@ -144,6 +153,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>（保证通过简称能找到唯一的一张表即可，简称不能为异议）
@@ -151,13 +161,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="1">
+    <comment ref="N6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Libing Yang:</t>
@@ -165,12 +177,55 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-为空不设置自增长、否则以所填写的值作为初始值。
-部分数据库不支持初始值</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>为空不设置自增长、否则以所填写的值作为初始值。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>部分数据库不支持初始值</t>
         </r>
       </text>
     </comment>
@@ -179,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -190,7 +245,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>修订内容</t>
     </r>
@@ -202,7 +257,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>作者</t>
     </r>
@@ -214,7 +269,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>承认者</t>
     </r>
@@ -226,7 +281,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>修订日期</t>
     </r>
@@ -238,7 +293,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>修订版本</t>
     </r>
@@ -249,7 +304,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>初版作成</t>
     </r>
@@ -260,7 +315,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>杨利兵</t>
     </r>
@@ -290,27 +345,15 @@
     <t>表空间</t>
   </si>
   <si>
-    <t>dbo</t>
-  </si>
-  <si>
     <t>杨利兵</t>
   </si>
   <si>
     <t>表说明</t>
   </si>
   <si>
-    <t>TableName</t>
-  </si>
-  <si>
     <t>责任者</t>
   </si>
   <si>
-    <t>2017/4/28</t>
-  </si>
-  <si>
-    <t>PO 属性</t>
-  </si>
-  <si>
     <t>表属性</t>
   </si>
   <si>
@@ -320,12 +363,6 @@
     <t>字段名</t>
   </si>
   <si>
-    <t>属性名</t>
-  </si>
-  <si>
-    <t>Java/.NET类型</t>
-  </si>
-  <si>
     <t>列名</t>
   </si>
   <si>
@@ -365,12 +402,6 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>poName</t>
-  </si>
-  <si>
-    <t>poType</t>
-  </si>
-  <si>
     <t>colName</t>
   </si>
   <si>
@@ -405,19 +436,33 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>test_table</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨利兵</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进模板、删除PO相关内容</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/5/30</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -428,18 +473,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -447,168 +494,76 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,194 +600,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -985,258 +754,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1273,12 +800,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1291,23 +812,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1351,59 +860,36 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1477,8 +963,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Yang Libing" id="{91A11E9E-3524-4E4D-9176-AAF7BE0FC6C3}" userId="673468bee760c9bf" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2685,1325 +2180,1341 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C2" dT="2020-05-30T04:08:57.73" personId="{91A11E9E-3524-4E4D-9176-AAF7BE0FC6C3}" id="{68711F02-4296-5D41-8CEA-FAD2D788CE42}">
+    <text xml:space="preserve">填写表空间，为空或 - 表示默认。
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1973684210526" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.79605263157895" style="26" customWidth="1"/>
-    <col min="2" max="2" width="19.0789473684211" style="26" customWidth="1"/>
-    <col min="3" max="3" width="12.1644736842105" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.2894736842105" style="26" customWidth="1"/>
-    <col min="5" max="5" width="9.90131578947368" style="26" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="26" customWidth="1"/>
-    <col min="7" max="7" width="6.79605263157895" style="26" customWidth="1"/>
-    <col min="8" max="256" width="12.1973684210526" style="26" customWidth="1"/>
-    <col min="257" max="16384" width="12.1973684210526" style="27"/>
+    <col min="1" max="1" width="2.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="20" customWidth="1"/>
+    <col min="8" max="256" width="12.25" style="20" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="15" spans="1:7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" s="20" customFormat="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-    </row>
-    <row r="2" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A2" s="30">
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A2" s="24">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="37">
+      <c r="D2" s="27"/>
+      <c r="E2" s="31">
         <v>40703</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="30">
         <v>0.1</v>
       </c>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" s="26" customFormat="1" ht="15" spans="1:7">
-      <c r="A3" s="30">
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" s="20" customFormat="1">
+      <c r="A3" s="24">
         <f t="shared" ref="A3:A21" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="37">
+      <c r="D3" s="27"/>
+      <c r="E3" s="31">
         <v>41391</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="30">
         <v>0.2</v>
       </c>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" s="26" customFormat="1" spans="1:7">
-      <c r="A4" s="30">
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="16">
+      <c r="A4" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" s="26" customFormat="1" spans="1:7">
-      <c r="A5" s="30">
+      <c r="B4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="31">
+        <v>42519</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1">
+      <c r="A5" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" s="26" customFormat="1" spans="1:7">
-      <c r="A6" s="30">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1">
+      <c r="A6" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" s="26" customFormat="1" spans="1:7">
-      <c r="A7" s="30">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1">
+      <c r="A7" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" s="26" customFormat="1" spans="1:7">
-      <c r="A8" s="30">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1">
+      <c r="A8" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" s="26" customFormat="1" spans="1:7">
-      <c r="A9" s="30">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" s="20" customFormat="1">
+      <c r="A9" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" s="26" customFormat="1" spans="1:7">
-      <c r="A10" s="30">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" s="20" customFormat="1">
+      <c r="A10" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" s="26" customFormat="1" spans="1:7">
-      <c r="A11" s="30">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" s="20" customFormat="1">
+      <c r="A11" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" s="26" customFormat="1" spans="1:7">
-      <c r="A12" s="30">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" s="20" customFormat="1">
+      <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" s="26" customFormat="1" spans="1:7">
-      <c r="A13" s="30">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1">
+      <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" s="26" customFormat="1" spans="1:7">
-      <c r="A14" s="30">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" s="20" customFormat="1">
+      <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" s="26" customFormat="1" spans="1:7">
-      <c r="A15" s="30">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" s="20" customFormat="1">
+      <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" s="26" customFormat="1" spans="1:7">
-      <c r="A16" s="30">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1">
+      <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" s="26" customFormat="1" spans="1:7">
-      <c r="A17" s="30">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1">
+      <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" s="26" customFormat="1" spans="1:7">
-      <c r="A18" s="30">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1">
+      <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" s="26" customFormat="1" spans="1:7">
-      <c r="A19" s="30">
+      <c r="B18" s="28"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" s="20" customFormat="1">
+      <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" s="26" customFormat="1" spans="1:7">
-      <c r="A20" s="30">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" s="20" customFormat="1">
+      <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" s="26" customFormat="1" spans="1:7">
-      <c r="A21" s="30">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" s="20" customFormat="1">
+      <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" s="26" customFormat="1" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" s="26" customFormat="1" spans="1:7">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" s="26" customFormat="1" spans="1:7">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" s="26" customFormat="1" spans="1:7">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" s="26" customFormat="1" spans="1:7">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" s="26" customFormat="1" spans="1:7">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" s="26" customFormat="1" spans="1:7">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" s="26" customFormat="1" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" s="26" customFormat="1" spans="1:7">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" s="26" customFormat="1" spans="1:7">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" s="26" customFormat="1" spans="1:7">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" s="26" customFormat="1" spans="1:7">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" s="26" customFormat="1" spans="1:7">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" s="26" customFormat="1" spans="1:7">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" s="26" customFormat="1" spans="1:7">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" s="26" customFormat="1" spans="1:7">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" s="26" customFormat="1" spans="1:7">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" s="26" customFormat="1" spans="1:7">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-    </row>
-    <row r="40" s="26" customFormat="1" spans="1:7">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-    </row>
-    <row r="41" s="26" customFormat="1" spans="1:7">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" s="26" customFormat="1" spans="1:7">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-    </row>
-    <row r="43" s="26" customFormat="1" spans="1:7">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-    </row>
-    <row r="44" s="26" customFormat="1" spans="1:7">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" s="26" customFormat="1" spans="1:7">
-      <c r="A45" s="30"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-    </row>
-    <row r="46" s="26" customFormat="1" spans="1:7">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-    </row>
-    <row r="47" s="26" customFormat="1" spans="1:7">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-    </row>
-    <row r="48" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A48" s="30"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-    </row>
-    <row r="49" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A49" s="30"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-    </row>
-    <row r="50" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A50" s="30"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-    </row>
-    <row r="51" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A51" s="30"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-    </row>
-    <row r="52" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A52" s="30"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-    </row>
-    <row r="53" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A53" s="30"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-    </row>
-    <row r="54" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A54" s="30"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-    </row>
-    <row r="55" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A55" s="30"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" s="20" customFormat="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" s="20" customFormat="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" s="20" customFormat="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" s="20" customFormat="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" s="20" customFormat="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" s="20" customFormat="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" s="20" customFormat="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" s="20" customFormat="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" s="20" customFormat="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" s="20" customFormat="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" s="20" customFormat="1">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" s="20" customFormat="1">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" s="20" customFormat="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" s="20" customFormat="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7" s="20" customFormat="1">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:7" s="20" customFormat="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" s="20" customFormat="1">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" s="20" customFormat="1">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" s="20" customFormat="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="1:7" s="20" customFormat="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="42" spans="1:7" s="20" customFormat="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+    </row>
+    <row r="43" spans="1:7" s="20" customFormat="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+    </row>
+    <row r="44" spans="1:7" s="20" customFormat="1">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+    </row>
+    <row r="45" spans="1:7" s="20" customFormat="1">
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+    </row>
+    <row r="46" spans="1:7" s="20" customFormat="1">
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+    </row>
+    <row r="47" spans="1:7" s="20" customFormat="1">
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+    </row>
+    <row r="48" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A48" s="24"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+    </row>
+    <row r="49" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A49" s="24"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+    </row>
+    <row r="50" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A50" s="24"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+    </row>
+    <row r="51" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A51" s="24"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+    </row>
+    <row r="52" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A52" s="24"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+    </row>
+    <row r="53" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A53" s="24"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+    </row>
+    <row r="54" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A54" s="24"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+    </row>
+    <row r="55" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A55" s="24"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:IV55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1973684210526" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.79605263157895" style="26" customWidth="1"/>
-    <col min="2" max="2" width="7.69736842105263" style="26" customWidth="1"/>
-    <col min="3" max="3" width="14.2960526315789" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.6973684210526" style="26" customWidth="1"/>
-    <col min="5" max="5" width="9.90131578947368" style="26" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="26" customWidth="1"/>
-    <col min="7" max="7" width="6.79605263157895" style="26" customWidth="1"/>
-    <col min="8" max="256" width="12.1973684210526" style="26" customWidth="1"/>
-    <col min="257" max="16384" width="12.1973684210526" style="27"/>
+    <col min="1" max="1" width="2.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="20" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="20" customWidth="1"/>
+    <col min="8" max="256" width="12.25" style="20" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="15" spans="1:7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" s="20" customFormat="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="1" spans="1:7">
-      <c r="A2" s="30">
+    <row r="2" spans="1:7" s="20" customFormat="1">
+      <c r="A2" s="24">
         <f t="shared" ref="A2:A55" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" s="26" customFormat="1" spans="1:7">
-      <c r="A3" s="30">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" s="20" customFormat="1">
+      <c r="A3" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" s="26" customFormat="1" spans="1:7">
-      <c r="A4" s="30">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" s="20" customFormat="1">
+      <c r="A4" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" s="26" customFormat="1" spans="1:7">
-      <c r="A5" s="30">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1">
+      <c r="A5" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" s="26" customFormat="1" spans="1:7">
-      <c r="A6" s="30">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" s="20" customFormat="1">
+      <c r="A6" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" s="26" customFormat="1" spans="1:7">
-      <c r="A7" s="30">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" s="20" customFormat="1">
+      <c r="A7" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" s="26" customFormat="1" spans="1:7">
-      <c r="A8" s="30">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1">
+      <c r="A8" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" s="26" customFormat="1" spans="1:7">
-      <c r="A9" s="30">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" s="20" customFormat="1">
+      <c r="A9" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" s="26" customFormat="1" spans="1:7">
-      <c r="A10" s="30">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" s="20" customFormat="1">
+      <c r="A10" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" s="26" customFormat="1" spans="1:7">
-      <c r="A11" s="30">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" s="20" customFormat="1">
+      <c r="A11" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" s="26" customFormat="1" spans="1:7">
-      <c r="A12" s="30">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" s="20" customFormat="1">
+      <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" s="26" customFormat="1" spans="1:7">
-      <c r="A13" s="30">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" s="20" customFormat="1">
+      <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" s="26" customFormat="1" spans="1:7">
-      <c r="A14" s="30">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" s="20" customFormat="1">
+      <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-    </row>
-    <row r="15" s="26" customFormat="1" spans="1:7">
-      <c r="A15" s="30">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" s="20" customFormat="1">
+      <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" s="26" customFormat="1" spans="1:7">
-      <c r="A16" s="30">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1">
+      <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" s="26" customFormat="1" spans="1:7">
-      <c r="A17" s="30">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1">
+      <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" s="26" customFormat="1" spans="1:7">
-      <c r="A18" s="30">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1">
+      <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="19" s="26" customFormat="1" spans="1:7">
-      <c r="A19" s="30">
+      <c r="B18" s="28"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" s="20" customFormat="1">
+      <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" s="26" customFormat="1" spans="1:7">
-      <c r="A20" s="30">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" s="20" customFormat="1">
+      <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" s="26" customFormat="1" spans="1:7">
-      <c r="A21" s="30">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" s="20" customFormat="1">
+      <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" s="26" customFormat="1" spans="1:7">
-      <c r="A22" s="30">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" s="20" customFormat="1">
+      <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" s="26" customFormat="1" spans="1:7">
-      <c r="A23" s="30">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" s="20" customFormat="1">
+      <c r="A23" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" s="26" customFormat="1" spans="1:7">
-      <c r="A24" s="30">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" s="20" customFormat="1">
+      <c r="A24" s="24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" s="26" customFormat="1" spans="1:7">
-      <c r="A25" s="30">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" s="20" customFormat="1">
+      <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" s="26" customFormat="1" spans="1:7">
-      <c r="A26" s="30">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" s="20" customFormat="1">
+      <c r="A26" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" s="26" customFormat="1" spans="1:7">
-      <c r="A27" s="30">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" s="20" customFormat="1">
+      <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" s="26" customFormat="1" spans="1:7">
-      <c r="A28" s="30">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:7" s="20" customFormat="1">
+      <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" s="26" customFormat="1" spans="1:7">
-      <c r="A29" s="30">
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" s="20" customFormat="1">
+      <c r="A29" s="24">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" s="26" customFormat="1" spans="1:7">
-      <c r="A30" s="30">
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:7" s="20" customFormat="1">
+      <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" s="26" customFormat="1" spans="1:7">
-      <c r="A31" s="30">
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" s="20" customFormat="1">
+      <c r="A31" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" s="26" customFormat="1" spans="1:7">
-      <c r="A32" s="30">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:7" s="20" customFormat="1">
+      <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" s="26" customFormat="1" spans="1:7">
-      <c r="A33" s="30">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" s="20" customFormat="1">
+      <c r="A33" s="24">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" s="26" customFormat="1" spans="1:7">
-      <c r="A34" s="30">
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7" s="20" customFormat="1">
+      <c r="A34" s="24">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" s="26" customFormat="1" spans="1:7">
-      <c r="A35" s="30">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7" s="20" customFormat="1">
+      <c r="A35" s="24">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" s="26" customFormat="1" spans="1:7">
-      <c r="A36" s="30">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7" s="20" customFormat="1">
+      <c r="A36" s="24">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" s="26" customFormat="1" spans="1:7">
-      <c r="A37" s="30">
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:7" s="20" customFormat="1">
+      <c r="A37" s="24">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" s="26" customFormat="1" spans="1:7">
-      <c r="A38" s="30">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7" s="20" customFormat="1">
+      <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" s="26" customFormat="1" spans="1:7">
-      <c r="A39" s="30">
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7" s="20" customFormat="1">
+      <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-    </row>
-    <row r="40" s="26" customFormat="1" spans="1:7">
-      <c r="A40" s="30">
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" s="20" customFormat="1">
+      <c r="A40" s="24">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-    </row>
-    <row r="41" s="26" customFormat="1" spans="1:7">
-      <c r="A41" s="30">
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="1:7" s="20" customFormat="1">
+      <c r="A41" s="24">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" s="26" customFormat="1" spans="1:7">
-      <c r="A42" s="30">
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+    </row>
+    <row r="42" spans="1:7" s="20" customFormat="1">
+      <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-    </row>
-    <row r="43" s="26" customFormat="1" spans="1:7">
-      <c r="A43" s="30">
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+    </row>
+    <row r="43" spans="1:7" s="20" customFormat="1">
+      <c r="A43" s="24">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-    </row>
-    <row r="44" s="26" customFormat="1" spans="1:7">
-      <c r="A44" s="30">
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+    </row>
+    <row r="44" spans="1:7" s="20" customFormat="1">
+      <c r="A44" s="24">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" s="26" customFormat="1" spans="1:7">
-      <c r="A45" s="30">
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+    </row>
+    <row r="45" spans="1:7" s="20" customFormat="1">
+      <c r="A45" s="24">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-    </row>
-    <row r="46" s="26" customFormat="1" spans="1:7">
-      <c r="A46" s="30">
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+    </row>
+    <row r="46" spans="1:7" s="20" customFormat="1">
+      <c r="A46" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-    </row>
-    <row r="47" s="26" customFormat="1" spans="1:7">
-      <c r="A47" s="30">
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+    </row>
+    <row r="47" spans="1:7" s="20" customFormat="1">
+      <c r="A47" s="24">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-    </row>
-    <row r="48" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A48" s="30">
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+    </row>
+    <row r="48" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A48" s="24">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-    </row>
-    <row r="49" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A49" s="30">
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+    </row>
+    <row r="49" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A49" s="24">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-    </row>
-    <row r="50" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A50" s="30">
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+    </row>
+    <row r="50" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A50" s="24">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-    </row>
-    <row r="51" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A51" s="30">
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+    </row>
+    <row r="51" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A51" s="24">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-    </row>
-    <row r="52" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A52" s="30">
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+    </row>
+    <row r="52" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A52" s="24">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-    </row>
-    <row r="53" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A53" s="30">
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+    </row>
+    <row r="53" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A53" s="24">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-    </row>
-    <row r="54" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A54" s="30">
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+    </row>
+    <row r="54" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A54" s="24">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-    </row>
-    <row r="55" s="26" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A55" s="30">
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+    </row>
+    <row r="55" spans="1:7" s="20" customFormat="1" ht="14">
+      <c r="A55" s="24">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -4011,100 +3522,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:IX13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IX27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1973684210526" defaultRowHeight="15.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.40131578947368" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.90131578947368" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.1973684210526" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.1973684210526" style="2" customWidth="1"/>
-    <col min="7" max="9" width="12.1973684210526" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.90131578947368" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="8" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.90131578947368" style="2" customWidth="1"/>
-    <col min="13" max="14" width="8" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.1973684210526" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.5986842105263" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.625" style="2" customWidth="1"/>
     <col min="17" max="17" width="28" style="2" customWidth="1"/>
-    <col min="18" max="258" width="12.1973684210526" style="2" customWidth="1"/>
-    <col min="259" max="16384" width="12.1973684210526" style="3"/>
+    <col min="18" max="258" width="12.25" style="2" customWidth="1"/>
+    <col min="259" max="16384" width="12.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="1:258" hidden="1"/>
+    <row r="2" spans="1:258">
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>17</v>
+      <c r="E2" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="4" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="2:17">
+      <c r="I2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+    </row>
+    <row r="3" spans="1:258">
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:258">
+      <c r="G3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+    </row>
+    <row r="4" spans="1:258" s="1" customFormat="1">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -4364,140 +3877,129 @@
       <c r="IW4" s="8"/>
       <c r="IX4" s="8"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="1:258">
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="IW5" s="3"/>
+      <c r="IX5" s="3"/>
+    </row>
+    <row r="6" spans="1:258">
+      <c r="B6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="24" t="s">
+      <c r="F6" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="H6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="I6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="J6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="K6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="L6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="M6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="N6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="O6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="IW6" s="3"/>
+      <c r="IX6" s="3"/>
+    </row>
+    <row r="7" spans="1:258" ht="28">
+      <c r="B7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="D7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="E7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="F7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="G7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="14" t="s">
+      <c r="H7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="I7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="J7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="L7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="M7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="N7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="O7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17">
+      <c r="IW7" s="3"/>
+      <c r="IX7" s="3"/>
+    </row>
+    <row r="8" spans="1:258">
       <c r="B8" s="5">
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="5" t="str">
-        <f t="shared" ref="D8:D13" si="0">IF(F8="","",F8)</f>
-        <v/>
-      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -4508,20 +4010,17 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="25"/>
-    </row>
-    <row r="9" spans="2:17">
+      <c r="O8" s="19"/>
+      <c r="IW8" s="3"/>
+      <c r="IX8" s="3"/>
+    </row>
+    <row r="9" spans="1:258">
       <c r="B9" s="5">
-        <f t="shared" ref="B9:B13" si="1">ROW()-7</f>
+        <f t="shared" ref="B9:B27" si="0">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -4532,20 +4031,17 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="25"/>
-    </row>
-    <row r="10" spans="2:17">
+      <c r="O9" s="19"/>
+      <c r="IW9" s="3"/>
+      <c r="IX9" s="3"/>
+    </row>
+    <row r="10" spans="1:258">
       <c r="B10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -4556,20 +4052,17 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="25"/>
-    </row>
-    <row r="11" spans="2:17">
+      <c r="O10" s="19"/>
+      <c r="IW10" s="3"/>
+      <c r="IX10" s="3"/>
+    </row>
+    <row r="11" spans="1:258">
       <c r="B11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -4580,20 +4073,17 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="25"/>
-    </row>
-    <row r="12" spans="2:17">
+      <c r="O11" s="19"/>
+      <c r="IW11" s="3"/>
+      <c r="IX11" s="3"/>
+    </row>
+    <row r="12" spans="1:258">
       <c r="B12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -4604,20 +4094,17 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" spans="2:17">
+      <c r="O12" s="19"/>
+      <c r="IW12" s="3"/>
+      <c r="IX12" s="3"/>
+    </row>
+    <row r="13" spans="1:258">
       <c r="B13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -4628,25 +4115,318 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="16"/>
+      <c r="O13" s="14"/>
+      <c r="IW13" s="3"/>
+      <c r="IX13" s="3"/>
+    </row>
+    <row r="14" spans="1:258">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="14"/>
+      <c r="IW14" s="3"/>
+      <c r="IX14" s="3"/>
+    </row>
+    <row r="15" spans="1:258">
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="14"/>
+      <c r="IW15" s="3"/>
+      <c r="IX15" s="3"/>
+    </row>
+    <row r="16" spans="1:258">
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="14"/>
+      <c r="IW16" s="3"/>
+      <c r="IX16" s="3"/>
+    </row>
+    <row r="17" spans="2:258">
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="14"/>
+      <c r="IW17" s="3"/>
+      <c r="IX17" s="3"/>
+    </row>
+    <row r="18" spans="2:258">
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="14"/>
+      <c r="IW18" s="3"/>
+      <c r="IX18" s="3"/>
+    </row>
+    <row r="19" spans="2:258">
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="14"/>
+      <c r="IW19" s="3"/>
+      <c r="IX19" s="3"/>
+    </row>
+    <row r="20" spans="2:258">
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="14"/>
+      <c r="IW20" s="3"/>
+      <c r="IX20" s="3"/>
+    </row>
+    <row r="21" spans="2:258">
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="14"/>
+      <c r="IW21" s="3"/>
+      <c r="IX21" s="3"/>
+    </row>
+    <row r="22" spans="2:258">
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="14"/>
+      <c r="IW22" s="3"/>
+      <c r="IX22" s="3"/>
+    </row>
+    <row r="23" spans="2:258">
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="14"/>
+      <c r="IW23" s="3"/>
+      <c r="IX23" s="3"/>
+    </row>
+    <row r="24" spans="2:258">
+      <c r="B24" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="14"/>
+      <c r="IW24" s="3"/>
+      <c r="IX24" s="3"/>
+    </row>
+    <row r="25" spans="2:258">
+      <c r="B25" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="14"/>
+      <c r="IW25" s="3"/>
+      <c r="IX25" s="3"/>
+    </row>
+    <row r="26" spans="2:258">
+      <c r="B26" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="14"/>
+      <c r="IW26" s="3"/>
+      <c r="IX26" s="3"/>
+    </row>
+    <row r="27" spans="2:258">
+      <c r="B27" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="14"/>
+      <c r="IW27" s="3"/>
+      <c r="IX27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:P5"/>
+  <mergeCells count="3">
+    <mergeCell ref="D5:N5"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:Q3"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J13 N8:N13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H27 L8:L27" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"√"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>